--- a/testSheet/vm_vrAlert.xlsx
+++ b/testSheet/vm_vrAlert.xlsx
@@ -5,30 +5,37 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="単体試験環境" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="試験環境" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="SQL文" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="DummyData1" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="DummyData2" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="DummyData3" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="DummyData4" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="単体項目" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="本試験" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">単体項目!$A$1:$K$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">単体項目!$A$1:$K$22</definedName>
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">単体項目!$A$1:$K$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">単体項目!$A$1:$K$31</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0" vbProcedure="false">単体項目!$A$1:$K$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0_0" vbProcedure="false">単体項目!$A$1:$K$31</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">単体項目!$A$1:$K$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">単体項目!$A$1:$K$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">本試験!$A$1:$K$19</definedName>
+    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">本試験!$A$1:$K$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">単体項目!$A$1:$K$28</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0" vbProcedure="false">単体項目!$A$1:$K$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0_0" vbProcedure="false">単体項目!$A$1:$K$28</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">単体項目!$A$1:$K$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">単体項目!$A$1:$K$28</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">単体項目!$A$1:$K$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">単体項目!$A$1:$K$1</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">単体項目!$A$1:$K$9</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">単体項目!$A$1:$K$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">単体項目!$A$1:$K$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">単体項目!$A$1:$K$9</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">単体項目!$A$1:$K$2</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">単体項目!$A$1:$K$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">単体項目!$A$1:$K$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">単体項目!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -40,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="62">
   <si>
     <t xml:space="preserve">テスト内容</t>
   </si>
@@ -51,6 +58,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">単体試験では</t>
     </r>
@@ -70,6 +78,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">を使用。</t>
     </r>
@@ -89,6 +98,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">は</t>
     </r>
@@ -108,6 +118,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">を実行した際の結果を再現するデータとする。</t>
     </r>
@@ -130,37 +141,78 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">を複数パターン用意することでテスト網羅性を保証するものとする。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">使用する</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">SQL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">文は別シート参照。</t>
+      <t xml:space="preserve">を複数パターン用意し、テストの網羅性を確保する。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">使用するSQL文は別シート参照。SQL文の正確性は実証済みなので本試験には含めない。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本試験では</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">VM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Migration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">して、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">VR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">と共存する環境を作成し、単体試験と同等の試験を実施する。</t>
     </r>
   </si>
   <si>
@@ -518,6 +570,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">ログが正しく出力されること。</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -545,35 +600,6 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
         <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">が存在する場合、ログが正しく出力されること。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">対象の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">VM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">が存在する
 (DummyData3)</t>
@@ -699,6 +725,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">対象の</t>
     </r>
@@ -708,6 +735,7 @@
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">VM</t>
     </r>
@@ -717,6 +745,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">が存在する
 (DummyData4)</t>
@@ -1020,108 +1049,205 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ログの除外</t>
+    <t xml:space="preserve">ログの抑制</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パターン１</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DummyData2を連続2回実行し、2回目の実行時にログが出力されないことを確認する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パターン２</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">２つ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">NIC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">を持つ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">VM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">を別の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">VR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">が起動しているホストへ移動してから実施。移動した</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">VM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">のみのログが出録されることを確認</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">引数テスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">引数に文字列を指定</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Invalid Option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">であることが出力されることの確認</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">通常時</t>
   </si>
   <si>
+    <t xml:space="preserve">SQL文を実行した際に何も結果が返ってこない状態で実行し、ログが出力されないこと。
+中間ログに実行時間の記録のみで中身がからの記録が残ること</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">対象の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">VM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">が存在する</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">対象の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">VM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">が存在する場合、ログが正しく出力されること。</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">ログが出力される状態で実行し、中間ログに存在する間は実行してもログが出力されないことを確認。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">引数テスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">引数に文字列を指定</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Invalid Option</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">であることが出力されることの確認</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">性能試験</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">引数に</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">を指定して実行</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">引数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">まで問題なく実行できることの確認。</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -1131,7 +1257,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1161,6 +1287,14 @@
       <color rgb="FF000000"/>
       <name val="WenQuanYi Micro Hei"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="WenQuanYi Micro Hei"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1199,19 +1333,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="WenQuanYi Micro Hei"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1302,6 +1423,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1310,19 +1435,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1330,16 +1447,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1354,7 +1471,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1362,8 +1479,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1442,20 +1563,24 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A6"/>
+  <dimension ref="A2:A8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1468,20 +1593,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="50" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="83" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1496,18 +1626,18 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection pane="topLeft" activeCell="N10" activeCellId="0" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="149.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>4</v>
+      <c r="A1" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1521,7 +1651,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="50" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1536,51 +1666,51 @@
   </sheetPr>
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.7692307692308"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="50" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1595,53 +1725,53 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.7692307692308"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>11</v>
@@ -1650,10 +1780,10 @@
         <v>204</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>11</v>
@@ -1664,10 +1794,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>11</v>
@@ -1676,10 +1806,10 @@
         <v>204</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>11</v>
@@ -1690,10 +1820,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>11</v>
@@ -1702,10 +1832,10 @@
         <v>202</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>11</v>
@@ -1716,10 +1846,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>12</v>
@@ -1728,13 +1858,13 @@
         <v>200</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>200</v>
@@ -1742,10 +1872,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>12</v>
@@ -1754,13 +1884,13 @@
         <v>200</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>200</v>
@@ -1768,10 +1898,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>12</v>
@@ -1780,13 +1910,13 @@
         <v>205</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>205</v>
@@ -1794,10 +1924,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>12</v>
@@ -1806,13 +1936,13 @@
         <v>206</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>206</v>
@@ -1821,7 +1951,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="50" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1836,53 +1966,53 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.7692307692308"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>11</v>
@@ -1891,10 +2021,10 @@
         <v>204</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>11</v>
@@ -1905,10 +2035,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>11</v>
@@ -1917,10 +2047,10 @@
         <v>202</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>11</v>
@@ -1931,10 +2061,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>12</v>
@@ -1943,10 +2073,10 @@
         <v>204</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>12</v>
@@ -1957,10 +2087,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>12</v>
@@ -1969,10 +2099,10 @@
         <v>200</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>12</v>
@@ -1983,10 +2113,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>12</v>
@@ -1995,10 +2125,10 @@
         <v>200</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>12</v>
@@ -2009,10 +2139,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>12</v>
@@ -2021,10 +2151,10 @@
         <v>205</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>12</v>
@@ -2035,10 +2165,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>12</v>
@@ -2047,10 +2177,10 @@
         <v>206</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>12</v>
@@ -2062,7 +2192,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="50" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2077,53 +2207,53 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.7692307692308"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>12</v>
@@ -2132,10 +2262,10 @@
         <v>204</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>12</v>
@@ -2146,10 +2276,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>12</v>
@@ -2158,10 +2288,10 @@
         <v>204</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>12</v>
@@ -2173,7 +2303,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="50" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2186,61 +2316,61 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="104.012145748988"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="4" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="4" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="4" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="105.834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.46153846153846"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="122.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>32</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2248,123 +2378,299 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="10" t="s">
         <v>34</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D2" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="10" t="s">
         <v>37</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="13" t="s">
-        <v>38</v>
+      <c r="C4" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14" t="s">
         <v>41</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>42</v>
+      <c r="B6" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="10" t="s">
-        <v>46</v>
+      <c r="D8" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="10" t="s">
-        <v>47</v>
+      <c r="D9" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <autoFilter ref="A1:K2"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="105.834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.46153846153846"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="122.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="10" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="18" t="s">
+      <c r="D11" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D12" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K2"/>

--- a/testSheet/vm_vrAlert.xlsx
+++ b/testSheet/vm_vrAlert.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="試験環境" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,24 +18,40 @@
     <sheet name="本試験" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">単体項目!$A$1:$K$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">単体項目!$A$1:$K$21</definedName>
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">単体項目!$A$1:$K$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">本試験!$A$1:$K$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">本試験!$A$1:$K$17</definedName>
     <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">本試験!$A$1:$K$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">単体項目!$A$1:$K$28</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0" vbProcedure="false">単体項目!$A$1:$K$22</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0_0" vbProcedure="false">単体項目!$A$1:$K$28</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">単体項目!$A$1:$K$22</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">単体項目!$A$1:$K$28</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">単体項目!$A$1:$K$22</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">単体項目!$A$1:$K$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">単体項目!$A$1:$K$9</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">単体項目!$A$1:$K$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0" vbProcedure="false">単体項目!$A$1:$K$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0_0" vbProcedure="false">単体項目!$A$1:$K$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">単体項目!$A$1:$K$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">単体項目!$A$1:$K$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">単体項目!$A$1:$K$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">単体項目!$A$1:$K$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">単体項目!$A$1:$K$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0" vbProcedure="false">単体項目!$A$1:$K$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0" vbProcedure="false">単体項目!$A$1:$K$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">単体項目!$A$1:$K$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">単体項目!$A$1:$K$8</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">単体項目!$A$1:$K$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">単体項目!$A$1:$K$9</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">単体項目!$A$1:$K$8</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">単体項目!$A$1:$K$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">単体項目!$A$1:$K$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">単体項目!$A$1:$K$8</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">単体項目!$A$1:$K$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">単体項目!$A$1:$K$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">単体項目!$A$1:$K$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">単体項目!$A$1:$K$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">単体項目!$A$1:$K$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">単体項目!$A$1:$K$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">単体項目!$A$1:$K$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">本試験!$A$1:$K$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area_0" vbProcedure="false">本試験!$A$1:$K$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area_0_0" vbProcedure="false">本試験!$A$1:$K$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">本試験!$A$1:$K$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">本試験!$A$1:$K$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">本試験!$A$1:$K$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">本試験!$A$1:$K$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">本試験!$A$1:$K$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -47,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="75">
   <si>
     <t xml:space="preserve">テスト内容</t>
   </si>
@@ -140,6 +156,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">を複数パターン用意し、テストの網羅性を確保する。</t>
     </r>
@@ -154,6 +171,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">本試験では</t>
     </r>
@@ -173,6 +191,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">を</t>
     </r>
@@ -192,6 +211,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">して、</t>
     </r>
@@ -211,8 +231,169 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">と共存する環境を作成し、単体試験と同等の試験を実施する。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">DummyData1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">中間ログへの出力対象の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">VM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">がいない状態</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">DummyData2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">中間ログへの出力対象の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">VM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">がある状態</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummydata3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">セカンダリ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">NIC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">が中間ログへの出力対象となっている</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">VM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">がある状態</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">DummyData4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">プライマリ・セカンダリが中間ログへの出力対象となっている</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">VM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">がある状態</t>
     </r>
   </si>
   <si>
@@ -847,7 +1028,36 @@
     <t xml:space="preserve">中間ログのローテーション</t>
   </si>
   <si>
-    <t xml:space="preserve">Default</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Default(5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">世代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">オプション</t>
@@ -997,58 +1207,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">オプション</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">指定後、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">指定して実行。中間ログに変化ないことを確認</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">ログの抑制</t>
   </si>
   <si>
@@ -1067,6 +1225,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">２つ</t>
     </r>
@@ -1086,6 +1245,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">を持つ</t>
     </r>
@@ -1105,6 +1265,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">を別の</t>
     </r>
@@ -1124,6 +1285,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">が起動しているホストへ移動してから実施。移動した</t>
     </r>
@@ -1143,6 +1305,7 @@
         <color rgb="FF000000"/>
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">のみのログが出録されることを確認</t>
     </r>
@@ -1174,6 +1337,9 @@
       </rPr>
       <t xml:space="preserve">であることが出力されることの確認</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">結果</t>
   </si>
   <si>
     <t xml:space="preserve">通常時</t>
@@ -1183,6 +1349,9 @@
 中間ログに実行時間の記録のみで中身がからの記録が残ること</t>
   </si>
   <si>
+    <t xml:space="preserve">○</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1244,6 +1413,145 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">が存在する場合、ログが正しく出力されること。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Default</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ログが</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">世代以上残らないこと</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ログの世代が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">以上ある状態でオプション</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">指定。中間ログが6世代以上残っていないこと</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">オプション</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">指定後、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">指定して実行。中間ログに変化ないことを確認</t>
     </r>
   </si>
   <si>
@@ -1254,8 +1562,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -1297,10 +1606,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="WenQuanYi Micro Hei"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1355,7 +1666,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1379,6 +1690,13 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
       <top style="thin"/>
       <bottom/>
@@ -1410,7 +1728,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1485,6 +1803,46 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1572,10 +1930,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A8"/>
+  <dimension ref="A2:A20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1604,14 +1962,54 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="83" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1627,17 +2025,18 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N10" activeCellId="0" sqref="N10"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="120.935222672065"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="149.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="303.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1667,7 +2066,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1675,7 +2074,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
@@ -1683,28 +2082,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1726,7 +2125,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1734,7 +2133,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
@@ -1742,36 +2141,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>11</v>
@@ -1780,10 +2179,10 @@
         <v>204</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>11</v>
@@ -1794,10 +2193,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>11</v>
@@ -1806,10 +2205,10 @@
         <v>204</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>11</v>
@@ -1820,10 +2219,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>11</v>
@@ -1832,10 +2231,10 @@
         <v>202</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>11</v>
@@ -1846,10 +2245,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>12</v>
@@ -1858,10 +2257,10 @@
         <v>200</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>12</v>
@@ -1872,10 +2271,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>12</v>
@@ -1884,10 +2283,10 @@
         <v>200</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>12</v>
@@ -1898,10 +2297,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>12</v>
@@ -1910,10 +2309,10 @@
         <v>205</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>12</v>
@@ -1924,10 +2323,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>12</v>
@@ -1936,10 +2335,10 @@
         <v>206</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>12</v>
@@ -1967,7 +2366,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1975,7 +2374,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
@@ -1983,36 +2382,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>11</v>
@@ -2021,10 +2420,10 @@
         <v>204</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>11</v>
@@ -2035,10 +2434,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>11</v>
@@ -2047,10 +2446,10 @@
         <v>202</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>11</v>
@@ -2061,10 +2460,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>12</v>
@@ -2073,10 +2472,10 @@
         <v>204</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>12</v>
@@ -2087,10 +2486,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>12</v>
@@ -2099,10 +2498,10 @@
         <v>200</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>12</v>
@@ -2113,10 +2512,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>12</v>
@@ -2125,10 +2524,10 @@
         <v>200</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>12</v>
@@ -2139,10 +2538,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>12</v>
@@ -2151,10 +2550,10 @@
         <v>205</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>12</v>
@@ -2165,10 +2564,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>12</v>
@@ -2177,10 +2576,10 @@
         <v>206</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>12</v>
@@ -2208,7 +2607,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2216,7 +2615,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
@@ -2224,36 +2623,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>12</v>
@@ -2262,10 +2661,10 @@
         <v>204</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>12</v>
@@ -2276,10 +2675,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>12</v>
@@ -2288,10 +2687,10 @@
         <v>204</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>12</v>
@@ -2316,61 +2715,61 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K65536"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="105.834008097166"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="109.582995951417"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.46153846153846"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="122.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2378,39 +2777,39 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="12" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="12" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2418,81 +2817,76 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B13" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K2"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2511,166 +2905,255 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="105.834008097166"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="109.582995951417"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.46153846153846"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="122.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="21" t="n">
+        <v>42942</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="12" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="21" t="n">
+        <v>42942</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="12" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>48</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="21" t="n">
+        <v>42942</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="21" t="n">
+        <v>42942</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="24" t="n">
+        <v>42942</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="21" t="n">
+        <v>42942</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="21" t="n">
+        <v>42942</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="B9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="24" t="n">
+        <v>42942</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="21" t="n">
+        <v>42942</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="27"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K2"/>
